--- a/harvest_plot_tutorial_csreview.xlsx
+++ b/harvest_plot_tutorial_csreview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cx241_cam_ac_uk/Documents/Carrots and sticks/Harvest plot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cx241_cam_ac_uk/Documents/Carrots and sticks/Harvest plot/tutorial/harvest_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{7B57273B-FF6A-D142-A0B5-660344D0BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BDD5E3C-85A9-ED45-821F-80DF60FC5901}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{7B57273B-FF6A-D142-A0B5-660344D0BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3CCCE8-35C4-3A48-A2F1-4F291F237452}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{3981936E-FB93-A949-8E00-1AD8CCD3AC5F}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="89">
   <si>
     <t xml:space="preserve">
 Reference (Author, year, country)</t>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>stat_sig</t>
+  </si>
+  <si>
+    <t>position_old</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +800,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>85</v>
@@ -821,7 +824,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <f ca="1">RANDBETWEEN(1,113)</f>
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5">
         <v>20</v>
@@ -848,7 +851,7 @@
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <f t="shared" ref="A3:A8" ca="1" si="0">RANDBETWEEN(1,113)</f>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -875,7 +878,7 @@
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -902,7 +905,7 @@
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>20</v>
@@ -929,7 +932,7 @@
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -956,7 +959,7 @@
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -983,7 +986,7 @@
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
@@ -1010,7 +1013,7 @@
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <f t="shared" ref="A9:A40" ca="1" si="1">RANDBETWEEN(1,113)</f>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5">
         <v>20</v>
@@ -1037,7 +1040,7 @@
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5">
         <v>20</v>
@@ -1064,7 +1067,7 @@
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>20</v>
@@ -1091,7 +1094,7 @@
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -1118,7 +1121,7 @@
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -1145,7 +1148,7 @@
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -1199,7 +1202,7 @@
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
         <v>19</v>
@@ -1226,7 +1229,7 @@
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>6</v>
@@ -1253,7 +1256,7 @@
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5">
         <v>4</v>
@@ -1280,7 +1283,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -1307,7 +1310,7 @@
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -1334,7 +1337,7 @@
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -1361,7 +1364,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5">
         <v>14</v>
@@ -1388,7 +1391,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B23" s="5">
         <v>13</v>
@@ -1415,7 +1418,7 @@
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5">
         <v>4</v>
@@ -1442,7 +1445,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -1469,7 +1472,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B26" s="5">
         <v>11</v>
@@ -1496,7 +1499,7 @@
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
@@ -1523,7 +1526,7 @@
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -1550,7 +1553,7 @@
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5">
         <v>18</v>
@@ -1577,7 +1580,7 @@
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -1604,7 +1607,7 @@
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -1631,7 +1634,7 @@
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5">
         <v>11</v>
@@ -1658,7 +1661,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B33" s="5">
         <v>10</v>
@@ -1685,7 +1688,7 @@
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B34" s="5">
         <v>6</v>
@@ -1712,7 +1715,7 @@
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B35" s="5">
         <v>12</v>
@@ -1739,7 +1742,7 @@
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B36" s="5">
         <v>17</v>
@@ -1766,7 +1769,7 @@
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B37" s="5">
         <v>13</v>
@@ -1793,7 +1796,7 @@
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5">
         <v>14</v>
@@ -1820,7 +1823,7 @@
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B39" s="5">
         <v>15</v>
@@ -1847,7 +1850,7 @@
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -1874,7 +1877,7 @@
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <f t="shared" ref="A41:A72" ca="1" si="2">RANDBETWEEN(1,113)</f>
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B41" s="5">
         <v>16</v>
@@ -1901,7 +1904,7 @@
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B42" s="5">
         <v>17</v>
@@ -1928,7 +1931,7 @@
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5">
         <v>18</v>
@@ -1955,7 +1958,7 @@
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B44" s="5">
         <v>6</v>
@@ -1982,7 +1985,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5">
         <v>19</v>
@@ -2009,7 +2012,7 @@
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>19</v>
@@ -2036,7 +2039,7 @@
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B47" s="5">
         <v>9</v>
@@ -2063,7 +2066,7 @@
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B48" s="5">
         <v>10</v>
@@ -2090,7 +2093,7 @@
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B49" s="5">
         <v>16</v>
@@ -2117,7 +2120,7 @@
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B50" s="5">
         <v>20</v>
@@ -2144,7 +2147,7 @@
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B51" s="5">
         <v>10</v>
@@ -2171,7 +2174,7 @@
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5">
         <v>11</v>
@@ -2198,7 +2201,7 @@
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B53" s="5">
         <v>9</v>
@@ -2225,7 +2228,7 @@
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B54" s="5">
         <v>19</v>
@@ -2252,7 +2255,7 @@
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B55" s="5">
         <v>8</v>
@@ -2279,7 +2282,7 @@
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B56" s="5">
         <v>12</v>
@@ -2306,7 +2309,7 @@
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B57" s="5">
         <v>13</v>
@@ -2333,7 +2336,7 @@
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B58" s="5">
         <v>20</v>
@@ -2360,7 +2363,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B59" s="5">
         <v>18</v>
@@ -2387,7 +2390,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B60" s="5">
         <v>9</v>
@@ -2414,7 +2417,7 @@
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B61" s="5">
         <v>7</v>
@@ -2441,7 +2444,7 @@
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B62" s="5">
         <v>8</v>
@@ -2468,7 +2471,7 @@
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B63" s="5">
         <v>9</v>
@@ -2495,7 +2498,7 @@
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -2522,7 +2525,7 @@
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B65" s="5">
         <v>11</v>
@@ -2549,7 +2552,7 @@
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B66" s="5">
         <v>12</v>
@@ -2576,7 +2579,7 @@
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B67" s="5">
         <v>13</v>
@@ -2603,7 +2606,7 @@
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B68" s="5">
         <v>14</v>
@@ -2630,7 +2633,7 @@
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B69" s="5">
         <v>15</v>
@@ -2657,7 +2660,7 @@
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B70" s="5">
         <v>16</v>
@@ -2684,7 +2687,7 @@
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B71" s="5">
         <v>15</v>
@@ -2711,7 +2714,7 @@
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5">
         <v>14</v>
@@ -2738,7 +2741,7 @@
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <f t="shared" ref="A73:A83" ca="1" si="3">RANDBETWEEN(1,113)</f>
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B73" s="5">
         <v>13</v>
@@ -2765,7 +2768,7 @@
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B74" s="5">
         <v>12</v>
@@ -2792,7 +2795,7 @@
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B75" s="5">
         <v>11</v>
@@ -2819,7 +2822,7 @@
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -2846,7 +2849,7 @@
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B77" s="5">
         <v>9</v>
@@ -2873,7 +2876,7 @@
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B78" s="5">
         <v>8</v>
@@ -2900,7 +2903,7 @@
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B79" s="5">
         <v>7</v>
@@ -2927,7 +2930,7 @@
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B80" s="5">
         <v>6</v>
@@ -2954,7 +2957,7 @@
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B81" s="5">
         <v>5</v>
@@ -2981,7 +2984,7 @@
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B82" s="5">
         <v>4</v>
@@ -3008,7 +3011,7 @@
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B83" s="5">
         <v>3</v>
@@ -3035,7 +3038,7 @@
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <f t="shared" ref="A84:A107" ca="1" si="4">RANDBETWEEN(1,113)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B84" s="5">
         <v>13</v>
@@ -3062,7 +3065,7 @@
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B85" s="5">
         <v>7</v>
@@ -3089,7 +3092,7 @@
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B86" s="5">
         <v>6</v>
@@ -3116,7 +3119,7 @@
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B87" s="5">
         <v>8</v>
@@ -3143,7 +3146,7 @@
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B88" s="5">
         <v>9</v>
@@ -3170,7 +3173,7 @@
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B89" s="5">
         <v>10</v>
@@ -3197,7 +3200,7 @@
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B90" s="5">
         <v>11</v>
@@ -3224,7 +3227,7 @@
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B91" s="5">
         <v>12</v>
@@ -3251,7 +3254,7 @@
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="5">
         <v>14</v>
@@ -3278,7 +3281,7 @@
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B93" s="5">
         <v>15</v>
@@ -3305,7 +3308,7 @@
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B94" s="5">
         <v>5</v>
@@ -3332,7 +3335,7 @@
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B95" s="5">
         <v>4</v>
@@ -3359,7 +3362,7 @@
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B96" s="5">
         <v>3</v>
@@ -3386,7 +3389,7 @@
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B97" s="5">
         <v>2</v>
@@ -3413,7 +3416,7 @@
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B98" s="5">
         <v>1</v>
@@ -3440,7 +3443,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B99" s="5">
         <v>17</v>
@@ -3467,7 +3470,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B100" s="5">
         <v>16</v>
@@ -3494,7 +3497,7 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B101" s="5">
         <v>15</v>
@@ -3521,7 +3524,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B102" s="5">
         <v>14</v>
@@ -3548,7 +3551,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B103" s="5">
         <v>13</v>
@@ -3575,7 +3578,7 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B104" s="5">
         <v>12</v>
@@ -3602,7 +3605,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B105" s="5">
         <v>11</v>
@@ -3629,7 +3632,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B106" s="5">
         <v>10</v>
@@ -3656,7 +3659,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B107" s="5">
         <v>9</v>
